--- a/tests/Headway_Sat_C_x_13M_D5_0004.xlsx
+++ b/tests/Headway_Sat_C_x_13M_D5_0004.xlsx
@@ -620,7 +620,7 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[13, 20, 21, 27]</t>
+          <t>[13, 21, 23, 27]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -628,17 +628,17 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>[16, 26]</t>
+          <t>[26]</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
         <v>3</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.269</v>
+        <v>1.6016</v>
       </c>
     </row>
     <row r="3">
@@ -703,7 +703,7 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[19]</t>
+          <t>[29]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.5703</v>
+        <v>2.469199999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4679,25 +4679,25 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t>[189, 215, 217, 219, 220, 222]</t>
+          <t>[217, 220, 222, 225]</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>[225]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>-1</v>
+        <v>181</v>
       </c>
       <c r="Y51" t="n">
-        <v>46.6173</v>
+        <v>2.669299999999993</v>
       </c>
     </row>
     <row r="52">
@@ -5930,11 +5930,11 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>[186]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66" t="n">
         <v>180</v>
@@ -6005,25 +6005,25 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[235]</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>[235]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="Y67" t="n">
-        <v>3.8339</v>
+        <v>1.998700000000014</v>
       </c>
     </row>
     <row r="68">
@@ -7746,11 +7746,11 @@
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[414]</t>
         </is>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -7761,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="Y88" t="n">
-        <v>2.870600000000024</v>
+        <v>1.802799999999991</v>
       </c>
     </row>
     <row r="89">
@@ -8003,11 +8003,11 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>[437]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X91" t="n">
         <v>443</v>
@@ -9485,25 +9485,25 @@
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr">
         <is>
-          <t>[550, 573, 575, 576]</t>
+          <t>[550, 573, 575, 576, 579]</t>
         </is>
       </c>
       <c r="U109" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>[574]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X109" t="n">
         <v>569</v>
       </c>
       <c r="Y109" t="n">
-        <v>1.935299999999984</v>
+        <v>1.634999999999991</v>
       </c>
     </row>
     <row r="110">
@@ -10068,11 +10068,11 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>[573]</t>
+          <t>[573, 579]</t>
         </is>
       </c>
       <c r="W116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X116" t="n">
         <v>-1</v>
